--- a/Racecard_20250216_3.xlsx
+++ b/Racecard_20250216_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="293">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -728,6 +734,27 @@
   </si>
   <si>
     <t>ISG</t>
+  </si>
+  <si>
+    <t>2023/12/10</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2024/12/08</t>
+  </si>
+  <si>
+    <t>2024/05/11</t>
+  </si>
+  <si>
+    <t>2024/11/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
   </si>
   <si>
     <t>何澤堯</t>
@@ -1251,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM13"/>
+  <dimension ref="A1:CO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,25 +1558,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1200</v>
@@ -1558,84 +1591,84 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O2">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R2">
         <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W2">
         <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AD2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AE2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>106</v>
+        <v>229</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1200</v>
@@ -1644,225 +1677,231 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L3">
         <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R3">
         <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AE3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH3">
         <v>2023240</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK3">
         <v>2</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3">
         <v>13</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>127</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>8</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>10</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>23.45</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>45.81</v>
       </c>
-      <c r="AR3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW3">
+      <c r="AT3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY3">
         <v>24.41</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>22.28</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>22.83</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>45.11</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.12</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>45.23</v>
       </c>
-      <c r="BF3" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG3">
+      <c r="BH3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BI3">
         <v>2023185</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>2</v>
       </c>
-      <c r="BI3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL3">
         <v>16</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>124</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>11</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>6</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>4</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>23.57</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>45.93</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BV3">
+      <c r="BS3" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BX3">
         <v>24.93</v>
       </c>
-      <c r="BW3">
+      <c r="BY3">
         <v>21.92</v>
       </c>
-      <c r="BX3">
+      <c r="BZ3">
         <v>22.09</v>
       </c>
-      <c r="CB3">
+      <c r="CD3">
         <v>44.01</v>
       </c>
-      <c r="CC3">
+      <c r="CE3">
         <v>0.333</v>
       </c>
-      <c r="CD3">
+      <c r="CF3">
         <v>44.343</v>
       </c>
-      <c r="CE3" t="s">
-        <v>264</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>107</v>
-      </c>
       <c r="CG3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="CH3" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="CI3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="CJ3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CK3" t="s">
-        <v>280</v>
-      </c>
-      <c r="CL3">
+        <v>273</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>289</v>
+      </c>
+      <c r="CN3">
         <v>69.64</v>
       </c>
-      <c r="CM3">
+      <c r="CO3">
         <v>69.45</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1200</v>
@@ -1871,114 +1910,120 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L4">
         <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R4">
         <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
       <c r="Y4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AC4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AD4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AE4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH4">
         <v>2024388</v>
       </c>
+      <c r="AI4" t="s">
+        <v>233</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL4">
+        <v>238</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN4">
         <v>135</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>-2</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>23.49</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>46.1</v>
       </c>
-      <c r="AR4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD4">
+      <c r="AT4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1200</v>
@@ -1987,225 +2032,231 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L5">
         <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R5">
         <v>54</v>
       </c>
       <c r="S5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AE5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH5">
         <v>2024240</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK5">
         <v>8</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK5">
+      <c r="AL5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM5">
         <v>6.8</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>131</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>-1</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>5</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>2</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>23.69</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>46.18</v>
       </c>
-      <c r="AR5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW5">
+      <c r="AT5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY5">
         <v>23.93</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>22.57</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>23.18</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>45.75</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>0.06900000000000001</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>45.819</v>
       </c>
-      <c r="BF5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BG5">
+      <c r="BH5" t="s">
+        <v>260</v>
+      </c>
+      <c r="BI5">
         <v>2024168</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>1</v>
       </c>
-      <c r="BI5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ5">
+      <c r="BK5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL5">
         <v>2.9</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>124</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>6</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>10</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>-3</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>23.79</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>45.79</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV5">
+      <c r="BS5" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX5">
         <v>24.03</v>
       </c>
-      <c r="BW5">
+      <c r="BY5">
         <v>21.92</v>
       </c>
-      <c r="BX5">
+      <c r="BZ5">
         <v>23.59</v>
       </c>
-      <c r="CB5">
+      <c r="CD5">
         <v>45.51</v>
       </c>
-      <c r="CC5">
+      <c r="CE5">
         <v>-0.036</v>
       </c>
-      <c r="CD5">
+      <c r="CF5">
         <v>45.474</v>
       </c>
-      <c r="CE5" t="s">
-        <v>265</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>109</v>
-      </c>
       <c r="CG5" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="CH5" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="CI5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CJ5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CK5" t="s">
-        <v>281</v>
-      </c>
-      <c r="CL5">
+        <v>274</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>285</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN5">
         <v>69.75</v>
       </c>
-      <c r="CM5">
+      <c r="CO5">
         <v>69.62</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1200</v>
@@ -2214,84 +2265,84 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L6">
         <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O6">
         <v>9</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R6">
         <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AE6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG6" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>110</v>
+        <v>229</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1200</v>
@@ -2300,87 +2351,87 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7">
         <v>128</v>
       </c>
       <c r="M7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R7">
         <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AE7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG7" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>111</v>
+        <v>229</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1200</v>
@@ -2389,225 +2440,231 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8">
         <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O8">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R8">
         <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AE8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH8">
         <v>2024393</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK8">
         <v>2</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK8">
+      <c r="AL8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM8">
         <v>10</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>130</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>-2</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>10</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>2</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>23.85</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>46.23</v>
       </c>
-      <c r="AR8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AW8">
+      <c r="AT8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY8">
         <v>23.85</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>22.46</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>23.54</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>46</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>0.05400000000000001</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>46.054</v>
       </c>
-      <c r="BF8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG8">
+      <c r="BH8" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI8">
         <v>2024338</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>1</v>
       </c>
-      <c r="BI8" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ8">
+      <c r="BK8" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL8">
         <v>1.9</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>122</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>6</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>4</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>8</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>24.18</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>47.03</v>
       </c>
-      <c r="BQ8" t="s">
-        <v>259</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>259</v>
-      </c>
-      <c r="BV8">
+      <c r="BS8" t="s">
+        <v>268</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>268</v>
+      </c>
+      <c r="BX8">
         <v>24.7</v>
       </c>
-      <c r="BW8">
+      <c r="BY8">
         <v>22.57</v>
       </c>
-      <c r="BX8">
+      <c r="BZ8">
         <v>22.74</v>
       </c>
-      <c r="CB8">
+      <c r="CD8">
         <v>45.31</v>
       </c>
-      <c r="CC8">
+      <c r="CE8">
         <v>0.426</v>
       </c>
-      <c r="CD8">
+      <c r="CF8">
         <v>45.736</v>
       </c>
-      <c r="CE8" t="s">
-        <v>266</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>112</v>
-      </c>
       <c r="CG8" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="CH8" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="CI8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CJ8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CK8" t="s">
-        <v>282</v>
-      </c>
-      <c r="CL8">
+        <v>275</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>286</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>291</v>
+      </c>
+      <c r="CN8">
         <v>69.90000000000001</v>
       </c>
-      <c r="CM8">
+      <c r="CO8">
         <v>70.17</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1200</v>
@@ -2616,87 +2673,87 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L9">
         <v>128</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R9">
         <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG9" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>113</v>
+        <v>229</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1200</v>
@@ -2705,222 +2762,228 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L10">
         <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R10">
         <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH10">
         <v>2024393</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK10">
         <v>14</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK10">
+      <c r="AL10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM10">
         <v>192</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>128</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>-2</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>12</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>-9</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>23.85</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>46.23</v>
       </c>
-      <c r="AR10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW10">
+      <c r="AT10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY10">
         <v>25.53</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>23.46</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>25.36</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>48.82</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>-0.408</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>48.412</v>
       </c>
-      <c r="BF10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG10">
+      <c r="BH10" t="s">
+        <v>262</v>
+      </c>
+      <c r="BI10">
         <v>2024167</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>7</v>
       </c>
-      <c r="BI10" t="s">
-        <v>234</v>
-      </c>
-      <c r="BJ10">
+      <c r="BK10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL10">
         <v>127</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>130</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>-4</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>13</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>-10</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>24.57</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>47.38</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BV10">
+      <c r="BS10" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>272</v>
+      </c>
+      <c r="BX10">
         <v>25.53</v>
       </c>
-      <c r="BW10">
+      <c r="BY10">
         <v>22.57</v>
       </c>
-      <c r="BX10">
+      <c r="BZ10">
         <v>22.19</v>
       </c>
-      <c r="CB10">
+      <c r="CD10">
         <v>44.76</v>
       </c>
-      <c r="CC10">
+      <c r="CE10">
         <v>-0.48</v>
       </c>
-      <c r="CD10">
+      <c r="CF10">
         <v>44.28</v>
       </c>
-      <c r="CE10" t="s">
-        <v>267</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>114</v>
-      </c>
       <c r="CG10" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="CH10" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="CI10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="CJ10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CK10" t="s">
-        <v>283</v>
-      </c>
-      <c r="CL10">
+        <v>276</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN10">
         <v>73.94</v>
       </c>
-      <c r="CM10">
+      <c r="CO10">
         <v>71.88</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1200</v>
@@ -2929,162 +2992,168 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11">
         <v>125</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R11">
         <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="U11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AE11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH11">
         <v>2023661</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK11">
         <v>6</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK11">
+      <c r="AL11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM11">
         <v>12</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>127</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>-2</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>1</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>4</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>23.99</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>46.48</v>
       </c>
-      <c r="AR11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AW11">
+      <c r="AT11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY11">
         <v>24.39</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>22.53</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>23.22</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>45.75</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>0.138</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>45.888</v>
       </c>
-      <c r="BF11" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>254</v>
+      <c r="BH11" t="s">
+        <v>263</v>
       </c>
       <c r="CH11" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>254</v>
-      </c>
-      <c r="CL11">
+        <v>117</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>282</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>263</v>
+      </c>
+      <c r="CN11">
         <v>70.28</v>
       </c>
-      <c r="CM11">
+      <c r="CO11">
         <v>70.28</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1200</v>
@@ -3093,87 +3162,87 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L12">
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R12">
         <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="W12">
         <v>3</v>
       </c>
       <c r="Y12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AE12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG12" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>116</v>
+        <v>229</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1200</v>
@@ -3182,201 +3251,207 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13">
         <v>117</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R13">
         <v>41</v>
       </c>
       <c r="S13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W13">
         <v>7</v>
       </c>
       <c r="Y13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AD13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH13">
         <v>2024150</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK13">
         <v>9</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM13">
         <v>23</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>115</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>2</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>10</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>-6</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>24.16</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>46.44</v>
       </c>
-      <c r="AR13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW13">
+      <c r="AT13" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY13">
         <v>24.16</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>22.28</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>23.65</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>45.93</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>-0.222</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>45.708</v>
       </c>
-      <c r="BF13" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG13">
+      <c r="BH13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI13">
         <v>2024066</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>1</v>
       </c>
-      <c r="BI13" t="s">
-        <v>256</v>
-      </c>
-      <c r="BJ13">
+      <c r="BK13" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL13">
         <v>15</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>125</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>-8</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>8</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>-4</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>24.73</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>47.21</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>261</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>261</v>
-      </c>
-      <c r="BV13">
+      <c r="BS13" t="s">
+        <v>270</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>270</v>
+      </c>
+      <c r="BX13">
         <v>25.09</v>
       </c>
-      <c r="BW13">
+      <c r="BY13">
         <v>22.48</v>
       </c>
-      <c r="BX13">
+      <c r="BZ13">
         <v>22.08</v>
       </c>
-      <c r="CB13">
+      <c r="CD13">
         <v>44.56</v>
       </c>
-      <c r="CC13">
+      <c r="CE13">
         <v>-0.288</v>
       </c>
-      <c r="CD13">
+      <c r="CF13">
         <v>44.27200000000001</v>
       </c>
-      <c r="CE13" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>117</v>
-      </c>
       <c r="CG13" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="CH13" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="CI13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CJ13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="CK13" t="s">
-        <v>281</v>
-      </c>
-      <c r="CL13">
+        <v>277</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>288</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN13">
         <v>69.87</v>
       </c>
-      <c r="CM13">
+      <c r="CO13">
         <v>69.62</v>
       </c>
     </row>
